--- a/biology/Botanique/Caloplaca/Caloplaca.xlsx
+++ b/biology/Botanique/Caloplaca/Caloplaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caloplaca (du grec calos, « beau » et placa, « plaque ») est un genre de champignons lichénisés incrustants. Avant son premier démembrement en 2013, ce genre très hétérogène comportait un millier d'espèces[1]. Plusieurs études de phylogénie moléculaire ont à ce jour permis de le subdiviser en plus de trente nouveaux genres désormais admis par la communauté des lichénologues. Dans ce nouveau contexte, le genre Caloplaca proprement dit ne comporte plus qu'une dizaine d'espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caloplaca (du grec calos, « beau » et placa, « plaque ») est un genre de champignons lichénisés incrustants. Avant son premier démembrement en 2013, ce genre très hétérogène comportait un millier d'espèces. Plusieurs études de phylogénie moléculaire ont à ce jour permis de le subdiviser en plus de trente nouveaux genres désormais admis par la communauté des lichénologues. Dans ce nouveau contexte, le genre Caloplaca proprement dit ne comporte plus qu'une dizaine d'espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Arup et al. (2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Arup et al. (2013) :
 Caloplaca cerina (Hedw.) Th. Fr.
 Caloplaca chlorina (Flot.) Sandst.
 Caloplaca hanneshertelii S. Y. Kondr. &amp; Kärnefelt
